--- a/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02022026.xlsx
+++ b/WhatsAppExcelMonitorElevenLabsV2/scripts/excel/02022026.xlsx
@@ -1,117 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet sheetId="1" name="Evangelio y Oraciones" state="visible" r:id="rId4"/>
+    <sheet name="Evangelio y Oraciones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames/>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t>NOMBRES</t>
-  </si>
-  <si>
-    <t>APELLIDO_PATERNO</t>
-  </si>
-  <si>
-    <t>APELLIDO_MATERNO</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
-  </si>
-  <si>
-    <t>MAIL</t>
-  </si>
-  <si>
-    <t>CORREO</t>
-  </si>
-  <si>
-    <t>SMS</t>
-  </si>
-  <si>
-    <t>WHATSAPP</t>
-  </si>
-  <si>
-    <t>TEXTO_MENSAJE</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>56994148421</t>
-  </si>
-  <si>
-    <t>lucesalejandro3@gmail.com</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lunes, 2 de febrero de 2026
-*Evangelio del Día*
-Lectura del santo evangelio según san Lucas
-Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
-*Oración de la mañana*
-Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
-Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
-Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
-Amén.</t>
-  </si>
-  <si>
-    <t>Omar</t>
-  </si>
-  <si>
-    <t>56973223070</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>56971748545</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>56931123918</t>
-  </si>
-  <si>
-    <t>Yume</t>
-  </si>
-  <si>
-    <t>584146711206</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -135,28 +51,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,193 +456,496 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="100" style="1" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="6" max="8"/>
+    <col width="100" customWidth="1" style="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>NOMBRES</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_PATERNO</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>APELLIDO_MATERNO</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CELULAR</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>MAIL</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>CORREO</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>SMS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>WHATSAPP</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>TEXTO_MENSAJE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="150" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Alejandro</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56994148421</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="2" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
+    <row r="3" ht="150" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Omar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>56973223070</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="3" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+    <row r="4" ht="150" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mama</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>56971748545</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>15</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="4" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
+    <row r="5" ht="150" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56931123918</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="5" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
+    <row r="6" ht="150" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yume</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>584146711206</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>lucesalejandro3@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>15</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
-    <row r="6" ht="150" customHeight="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Mariangely</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56972028078</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mariangelygonzalez14@gmail.com</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>15</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ALEJANDRO MANUEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LUCES</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34672527995</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>alejandroluces5515@gmail.com</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Marianny</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonzalez</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56967970252</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>marikaro2508@gmail.com</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Milagros</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>González</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>56936637515</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Milagrosghurtado@gmail.com</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>lunes, 2 de febrero de 2026
+*Evangelio del Día*
+Lectura del santo evangelio según san Lucas
+Lucas 2, 22-40 Transcurrido el tiempo de la purificación de María, según la ley de Moisés, ella y José llevaron al niño a Jerusalén para presentarlo al Señor, de acuerdo con lo escrito en la ley: Todo primogénito varón será consagrado al Señor, y también para ofrecer, como dice la ley, un par de tórtolas o dos pichones. Vivía en Jerusalén un hombre llamado Simeón, varón justo y temeroso de Dios, que aguardaba el consuelo de Israel; en él moraba el Espíritu Santo, el cual le había revelado que no moriría sin haber visto antes al Mesías del Señor. Movido por el Espíritu, fue al templo, y cuando José y María entraban con el niño Jesús para cumplir con lo prescrito por la ley, Simeón lo tomó en brazos y bendijo a Dios, diciendo: “Señor, ya puedes dejar morir en paz a tu siervo, según lo que me habías prometido, porque mis ojos han visto a tu Salvador, al que has preparado para bien de todos los pueblos; luz que alumbra a las naciones y gloria de tu pueblo, Israel”. El padre y la madre del niño estaban admirados de semejantes palabras. Simeón los bendijo, y a María, la madre de Jesús, le anunció: “Este niño ha sido puesto para ruina y resurgimiento de muchos en Israel, como signo que provocará contradicción, para que queden al descubierto los pensamientos de todos los corazones. Y a ti, una espada te atravesará el alma”. Había también una profetisa, Ana, hija de Fanuel, de la tribu de Aser. Era una mujer muy anciana. De joven, había vivido siete años casada, y tenía ya ochenta y cuatro años de edad. No se apartaba del templo ni de día ni de noche, sirviendo a Dios con ayunos y oraciones. Ana se acercó en aquel momento, dando gracias a Dios y hablando del niño a todos los que aguardaban la liberación de Israel. Y cuando cumplieron todo lo que prescribía la ley del Señor, se volvieron a Galilea, a su ciudad de Nazaret. El niño iba creciendo y fortaleciéndose, se llenaba de sabiduría y la gracia de Dios estaba con él.
+*Oración de la mañana*
+Querido Jesús, Luz que alumbra a las naciones, te agradecemos por este nuevo día. Nos maravillamos de tu presencia en nuestra vida, al igual que María y José, que te presentaron al Padre en obediencia a la ley de Moisés. Ayúdanos a verte en cada momento de nuestro día y a ser consuelo para aquellos que están en la oscuridad.
+Padre amado, gracias por la luz de este nuevo día y por la oportunidad de vivir y amar de nuevo. Te agradecemos por tu promesa de salvación y tu constante guía. A medida que nos enfrentamos a los triunfos y desafíos del día, que siempre nos recordemos de tu amor y tu promesa, tal como Simeón reconoció a Jesús como el Salvador.
+Espíritu Santo, que moras en nosotros, te pedimos que nos guíes y nos inspires en este día. Así como guiaste a Simeón al templo y revelaste a Jesús como el Mesías, te pedimos que nos muevas a seguir tu voluntad en cada decisión que tomemos hoy.
+Amén.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>